--- a/egov-data-uploader/src/main/resources/Upload_LCMS_data.xlsx
+++ b/egov-data-uploader/src/main/resources/Upload_LCMS_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="184">
   <si>
     <t xml:space="preserve">ULB Logo</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">ACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:15 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Election Ward No 1</t>
@@ -578,13 +581,14 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
-    <numFmt numFmtId="166" formatCode="H:MM\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -639,6 +643,11 @@
       <name val="Lato"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -757,11 +766,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,7 +782,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -857,12 +866,14 @@
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="AA28" activeCellId="0" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="32" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1080,29 +1091,29 @@
       <c r="AF2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="9" t="n">
-        <v>0.427083333333333</v>
+      <c r="AG2" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH2" s="5" t="n">
         <v>34700</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL2" s="5" t="n">
         <v>39142</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,13 +1126,13 @@
         <v>11001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>39509</v>
@@ -1136,16 +1147,16 @@
         <v>39509</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>39509</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="5" t="n">
         <v>39509</v>
@@ -1154,7 +1165,7 @@
         <v>39509</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>48</v>
@@ -1175,7 +1186,7 @@
         <v>49</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>49</v>
@@ -1184,43 +1195,43 @@
         <v>2006</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="9" t="n">
-        <v>0.46875</v>
+        <v>70</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH3" s="5" t="n">
         <v>35097</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="5" t="n">
         <v>39509</v>
       </c>
       <c r="AM3" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,13 +1244,13 @@
         <v>11002</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>39875</v>
@@ -1254,16 +1265,16 @@
         <v>39875</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>39875</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>39875</v>
@@ -1293,7 +1304,7 @@
         <v>49</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>49</v>
@@ -1302,43 +1313,43 @@
         <v>2007</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="9" t="n">
-        <v>0.510416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH4" s="5" t="n">
         <v>35492</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL4" s="5" t="n">
         <v>39875</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN4" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,13 +1362,13 @@
         <v>11003</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>40241</v>
@@ -1372,16 +1383,16 @@
         <v>40241</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>40241</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" s="5" t="n">
         <v>40241</v>
@@ -1411,7 +1422,7 @@
         <v>49</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>49</v>
@@ -1420,43 +1431,43 @@
         <v>2008</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="9" t="n">
-        <v>0.552083333333333</v>
+        <v>92</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH5" s="5" t="n">
         <v>35858</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="5" t="n">
         <v>40241</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN5" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,13 +1480,13 @@
         <v>11004</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>40607</v>
@@ -1490,13 +1501,13 @@
         <v>40607</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>40607</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>46</v>
@@ -1529,7 +1540,7 @@
         <v>49</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>49</v>
@@ -1538,43 +1549,43 @@
         <v>2009</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" s="9" t="n">
-        <v>0.59375</v>
+      <c r="AG6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH6" s="5" t="n">
         <v>36224</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL6" s="5" t="n">
         <v>40607</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN6" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1598,13 @@
         <v>11005</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>40974</v>
@@ -1608,16 +1619,16 @@
         <v>40974</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>40974</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>40974</v>
@@ -1656,43 +1667,43 @@
         <v>2010</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG7" s="9" t="n">
-        <v>0.635416666666667</v>
+        <v>70</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH7" s="5" t="n">
         <v>36591</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL7" s="5" t="n">
         <v>40974</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN7" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,13 +1716,13 @@
         <v>11006</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>41340</v>
@@ -1726,16 +1737,16 @@
         <v>41340</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>41340</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>41340</v>
@@ -1765,7 +1776,7 @@
         <v>49</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>49</v>
@@ -1774,43 +1785,43 @@
         <v>2001</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG8" s="9" t="n">
-        <v>0.510416666666667</v>
+        <v>82</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH8" s="5" t="n">
         <v>36957</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL8" s="5" t="n">
         <v>41340</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>41706</v>
@@ -1844,16 +1855,16 @@
         <v>41706</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>41706</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9" s="5" t="n">
         <v>41706</v>
@@ -1892,43 +1903,43 @@
         <v>2002</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="9" t="n">
-        <v>0.552083333333333</v>
+        <v>92</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH9" s="5" t="n">
         <v>37323</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="5" t="n">
         <v>41706</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,13 +1952,13 @@
         <v>11008</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>42072</v>
@@ -1962,13 +1973,13 @@
         <v>42072</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>42072</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>46</v>
@@ -2001,7 +2012,7 @@
         <v>49</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>49</v>
@@ -2013,40 +2024,40 @@
         <v>50</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG10" s="9" t="n">
-        <v>0.59375</v>
+      <c r="AG10" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH10" s="5" t="n">
         <v>37689</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL10" s="5" t="n">
         <v>42072</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2070,10 @@
         <v>11009</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
@@ -2080,7 +2091,7 @@
         <v>42438</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>42438</v>
@@ -2089,7 +2100,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>42438</v>
@@ -2119,7 +2130,7 @@
         <v>49</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>49</v>
@@ -2128,43 +2139,43 @@
         <v>2004</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG11" s="9" t="n">
-        <v>0.635416666666667</v>
+        <v>70</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH11" s="5" t="n">
         <v>38056</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="5" t="n">
         <v>42438</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,13 +2188,13 @@
         <v>11010</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>42803</v>
@@ -2198,16 +2209,16 @@
         <v>42803</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>42803</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="5" t="n">
         <v>42803</v>
@@ -2237,7 +2248,7 @@
         <v>49</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>49</v>
@@ -2246,43 +2257,43 @@
         <v>2005</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG12" s="9" t="n">
-        <v>0.677083333333333</v>
+        <v>82</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH12" s="5" t="n">
         <v>38422</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL12" s="5" t="n">
         <v>42803</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,13 +2306,13 @@
         <v>11011</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>43168</v>
@@ -2316,16 +2327,16 @@
         <v>43168</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>43168</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>43168</v>
@@ -2355,7 +2366,7 @@
         <v>49</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>49</v>
@@ -2364,43 +2375,43 @@
         <v>2006</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="9" t="n">
-        <v>0.71875</v>
+        <v>92</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH13" s="5" t="n">
         <v>38788</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL13" s="5" t="n">
         <v>43168</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,10 +2427,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>43168</v>
@@ -2434,13 +2445,13 @@
         <v>43168</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>43168</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>46</v>
@@ -2473,7 +2484,7 @@
         <v>49</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>49</v>
@@ -2482,43 +2493,43 @@
         <v>2007</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG14" s="9" t="n">
-        <v>0.760416666666667</v>
+      <c r="AG14" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH14" s="5" t="n">
         <v>39142</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL14" s="5" t="n">
         <v>43168</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,13 +2542,13 @@
         <v>11013</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>39142</v>
@@ -2552,16 +2563,16 @@
         <v>39142</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>39142</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P15" s="5" t="n">
         <v>39142</v>
@@ -2591,7 +2602,7 @@
         <v>49</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>49</v>
@@ -2600,43 +2611,43 @@
         <v>2008</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG15" s="9" t="n">
-        <v>0.802083333333333</v>
+        <v>70</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH15" s="5" t="n">
         <v>39509</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ15" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL15" s="5" t="n">
         <v>39142</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,13 +2660,13 @@
         <v>11014</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>39509</v>
@@ -2670,16 +2681,16 @@
         <v>39509</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>39509</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="5" t="n">
         <v>39509</v>
@@ -2709,7 +2720,7 @@
         <v>49</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>49</v>
@@ -2718,43 +2729,43 @@
         <v>2009</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG16" s="9" t="n">
-        <v>0.84375</v>
+        <v>82</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH16" s="5" t="n">
         <v>39875</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ16" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL16" s="5" t="n">
         <v>39509</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN16" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,13 +2778,13 @@
         <v>11015</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>39875</v>
@@ -2788,16 +2799,16 @@
         <v>39875</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>39875</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="5" t="n">
         <v>39875</v>
@@ -2827,7 +2838,7 @@
         <v>49</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>49</v>
@@ -2836,43 +2847,43 @@
         <v>2010</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG17" s="9" t="n">
-        <v>0.885416666666667</v>
+        <v>92</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH17" s="5" t="n">
         <v>40241</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ17" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL17" s="5" t="n">
         <v>39875</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN17" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,13 +2896,13 @@
         <v>11016</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>40241</v>
@@ -2906,13 +2917,13 @@
         <v>40241</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>40241</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>46</v>
@@ -2945,7 +2956,7 @@
         <v>49</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>49</v>
@@ -2957,40 +2968,40 @@
         <v>50</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD18" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG18" s="9" t="n">
-        <v>0.927083333333333</v>
+      <c r="AG18" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH18" s="5" t="n">
         <v>40607</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ18" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL18" s="5" t="n">
         <v>40241</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,13 +3014,13 @@
         <v>11017</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>40607</v>
@@ -3024,16 +3035,16 @@
         <v>40607</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>40607</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P19" s="5" t="n">
         <v>40607</v>
@@ -3063,7 +3074,7 @@
         <v>49</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>49</v>
@@ -3072,43 +3083,43 @@
         <v>2012</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG19" s="9" t="n">
-        <v>0.96875</v>
+        <v>70</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH19" s="5" t="n">
         <v>40974</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ19" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL19" s="5" t="n">
         <v>40607</v>
       </c>
       <c r="AM19" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,13 +3132,13 @@
         <v>11018</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>40974</v>
@@ -3142,7 +3153,7 @@
         <v>40974</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>40974</v>
@@ -3151,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="5" t="n">
         <v>40974</v>
@@ -3181,7 +3192,7 @@
         <v>49</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>49</v>
@@ -3190,43 +3201,43 @@
         <v>2013</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG20" s="9" t="n">
-        <v>1.01041666666667</v>
+        <v>82</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH20" s="5" t="n">
         <v>41340</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ20" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL20" s="5" t="n">
         <v>40974</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN20" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,13 +3250,13 @@
         <v>11019</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>41340</v>
@@ -3260,16 +3271,16 @@
         <v>41340</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>41340</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="5" t="n">
         <v>41340</v>
@@ -3299,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>49</v>
@@ -3308,43 +3319,43 @@
         <v>2014</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG21" s="9" t="n">
-        <v>1.05208333333333</v>
+        <v>92</v>
+      </c>
+      <c r="AG21" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH21" s="5" t="n">
         <v>41706</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AJ21" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL21" s="5" t="n">
         <v>41340</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN21" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,13 +3368,13 @@
         <v>11020</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>41706</v>
@@ -3378,13 +3389,13 @@
         <v>41706</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>41706</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>46</v>
@@ -3417,7 +3428,7 @@
         <v>49</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z22" s="2" t="s">
         <v>49</v>
@@ -3426,43 +3437,43 @@
         <v>2015</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD22" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG22" s="9" t="n">
-        <v>1.09375</v>
+      <c r="AG22" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH22" s="5" t="n">
         <v>42072</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ22" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL22" s="5" t="n">
         <v>41706</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN22" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,13 +3486,13 @@
         <v>11021</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>42072</v>
@@ -3496,16 +3507,16 @@
         <v>42072</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>42072</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P23" s="5" t="n">
         <v>42072</v>
@@ -3535,7 +3546,7 @@
         <v>49</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>49</v>
@@ -3544,43 +3555,43 @@
         <v>2016</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD23" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG23" s="9" t="n">
-        <v>1.13541666666667</v>
+        <v>70</v>
+      </c>
+      <c r="AG23" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH23" s="5" t="n">
         <v>42438</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ23" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL23" s="5" t="n">
         <v>42072</v>
       </c>
       <c r="AM23" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN23" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3593,13 +3604,13 @@
         <v>11022</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>42438</v>
@@ -3614,16 +3625,16 @@
         <v>42438</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>42438</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="5" t="n">
         <v>42438</v>
@@ -3653,7 +3664,7 @@
         <v>49</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="2" t="s">
         <v>49</v>
@@ -3662,43 +3673,43 @@
         <v>2017</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG24" s="9" t="n">
-        <v>1.17708333333333</v>
+        <v>82</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH24" s="5" t="n">
         <v>42803</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL24" s="5" t="n">
         <v>42438</v>
       </c>
       <c r="AM24" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN24" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,13 +3722,13 @@
         <v>11023</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>42803</v>
@@ -3732,16 +3743,16 @@
         <v>42803</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>42803</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P25" s="5" t="n">
         <v>42803</v>
@@ -3771,7 +3782,7 @@
         <v>49</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z25" s="2" t="s">
         <v>49</v>
@@ -3780,43 +3791,43 @@
         <v>2018</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG25" s="9" t="n">
-        <v>1.21875</v>
+        <v>92</v>
+      </c>
+      <c r="AG25" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="AH25" s="5" t="n">
         <v>43168</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AJ25" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL25" s="5" t="n">
         <v>42803</v>
       </c>
       <c r="AM25" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AN25" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
